--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2723076.501766302</v>
+        <v>2798606.171431107</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>147.9405042558451</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>356.8673131456191</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>71.28149957976655</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>55.90301252244888</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -911,7 +913,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>27.886450250284</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>354.386123561767</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>35.91413898973432</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>26.71728140711206</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>118.948268258191</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>111.7848761944322</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>12.84584032841726</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>144.5773991465721</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385021</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>42.61297813781933</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>3.295090184551618</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>116.2097967389826</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>80.60579433720683</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1898,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>32.33602639002968</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0770601256793</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274313</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2175,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>75.42907708199289</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>88.33114047392117</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>46.25903264965672</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>20.58581884348041</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>141.7377288984306</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>167.5142106324313</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2845,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2956,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>99.63871026137393</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>100.9616935639081</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3083,16 +3085,16 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.446023500477304</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>4.366412931923203</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>86.07208297128085</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>49.72623584801669</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>128.0725132443334</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>14.44700389865935</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3797,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>47.77795106628346</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>86.3791222553461</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>91.09720239620675</v>
+        <v>100.5727309492971</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1222.906241876376</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2547.714238234541</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2547.714238234541</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2293.952452872632</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>1962.889565529061</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.378275356799</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="X2" t="n">
-        <v>1222.906241876376</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1222.906241876376</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4400,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2248.366960976675</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="C4" t="n">
-        <v>2079.430778048768</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="D4" t="n">
-        <v>2079.430778048768</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="E4" t="n">
-        <v>2079.430778048768</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F4" t="n">
-        <v>2079.430778048768</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>2079.430778048768</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>2469.159540120205</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>2248.366960976675</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223454</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830421</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4577,40 +4579,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2668.980959452279</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2450.346292424342</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2450.346292424342</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2450.346292424342</v>
       </c>
       <c r="W5" t="n">
-        <v>1717.512263598976</v>
+        <v>2450.346292424342</v>
       </c>
       <c r="X5" t="n">
-        <v>1717.512263598976</v>
+        <v>2076.880534163262</v>
       </c>
       <c r="Y5" t="n">
-        <v>1359.546482223454</v>
+        <v>1686.741202187451</v>
       </c>
     </row>
     <row r="6">
@@ -4641,10 +4643,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4656,13 +4658,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>259.1560728187101</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>90.21988989080316</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>90.21988989080316</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>90.21988989080316</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>90.21988989080316</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>90.21988989080316</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>90.21988989080316</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>259.1560728187101</v>
+        <v>671.7249121235795</v>
       </c>
       <c r="W7" t="n">
-        <v>259.1560728187101</v>
+        <v>671.7249121235795</v>
       </c>
       <c r="X7" t="n">
-        <v>259.1560728187101</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="Y7" t="n">
-        <v>259.1560728187101</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592771</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X8" t="n">
-        <v>2000.260242234759</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y8" t="n">
-        <v>1610.120910258947</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4874,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>224.6669506791649</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="U10" t="n">
-        <v>224.6669506791649</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="V10" t="n">
-        <v>224.6669506791649</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="W10" t="n">
-        <v>224.6669506791649</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="X10" t="n">
-        <v>224.6669506791649</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.6669506791649</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,16 +5026,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,13 +5044,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,10 +5059,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5126,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365143</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>754.4177361809765</v>
+        <v>843.8929204411535</v>
       </c>
       <c r="C13" t="n">
-        <v>585.4815532530696</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="D13" t="n">
-        <v>542.438140992646</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1495.587896634113</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1295.667886549665</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1071.882471339171</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1071.882471339171</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.055751909234</v>
+        <v>1071.882471339171</v>
       </c>
       <c r="W13" t="n">
-        <v>1164.055751909234</v>
+        <v>1071.882471339171</v>
       </c>
       <c r="X13" t="n">
-        <v>936.0662010112162</v>
+        <v>843.8929204411535</v>
       </c>
       <c r="Y13" t="n">
-        <v>936.0662010112162</v>
+        <v>843.8929204411535</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5270,58 +5272,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>698.8634468392142</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M15" t="n">
-        <v>1006.183580119176</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N15" t="n">
-        <v>1336.046207783209</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O15" t="n">
-        <v>2005.509969085868</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>588.5027791527951</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>588.5027791527951</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>588.5027791527951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>440.589685570402</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5464,22 +5466,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.712528333286</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W16" t="n">
-        <v>809.2953582963253</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X16" t="n">
-        <v>809.2953582963253</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="Y16" t="n">
-        <v>588.5027791527951</v>
+        <v>364.7173639423009</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,16 +5506,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5525,19 +5527,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1595.645765494011</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N18" t="n">
-        <v>1925.508393158044</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O18" t="n">
-        <v>2205.048458376741</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>446.7290208898078</v>
+        <v>674.6944526764913</v>
       </c>
       <c r="C19" t="n">
-        <v>277.7928379619009</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W19" t="n">
-        <v>674.7185717878251</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X19" t="n">
-        <v>446.7290208898078</v>
+        <v>856.3429175067311</v>
       </c>
       <c r="Y19" t="n">
-        <v>446.7290208898078</v>
+        <v>856.3429175067311</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155913</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805494</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822487</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690736</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409609</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742902</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769787</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373972</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.68132280566</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263801</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>2786.879505108314</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>3033.644633014778</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>3340.96476629474</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N21" t="n">
-        <v>3765.904468744136</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O21" t="n">
-        <v>4045.444533962833</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698581</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014295</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014295</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641235</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409492</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.53946268129</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475758</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710804</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3975.739489936621</v>
+        <v>3778.208216256917</v>
       </c>
       <c r="C22" t="n">
-        <v>3806.803307008714</v>
+        <v>3609.27203332901</v>
       </c>
       <c r="D22" t="n">
-        <v>3806.803307008714</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E22" t="n">
-        <v>3806.803307008714</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F22" t="n">
-        <v>3659.913359510804</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G22" t="n">
-        <v>3659.913359510804</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294722</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.15539391667</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380579</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625199</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636328</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403511</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431059</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436456</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042139</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014295</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014295</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014295</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="V22" t="n">
-        <v>4606.170084808408</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="W22" t="n">
-        <v>4606.170084808408</v>
+        <v>4082.388754106442</v>
       </c>
       <c r="X22" t="n">
-        <v>4378.180533910391</v>
+        <v>3854.399203208425</v>
       </c>
       <c r="Y22" t="n">
-        <v>4157.387954766861</v>
+        <v>3854.399203208425</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,43 +5974,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341679</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.91112712663</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4143.52784199487</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>3974.591659066963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3824.475019654627</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3824.475019654627</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3777.748724048914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380587</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625199</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636328</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403511</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431059</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436456</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042139</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014295</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014295</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929848</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4660.934562929848</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4660.934562929848</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>4660.934562929848</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="W25" t="n">
-        <v>4371.517392892887</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X25" t="n">
-        <v>4143.52784199487</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y25" t="n">
-        <v>4143.52784199487</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514085</v>
@@ -6239,37 +6241,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>2786.879505108312</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>3118.091695702839</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>3425.411828982801</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>3755.274456646834</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>4034.814521865531</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>4555.115143601279</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>414.0663679705859</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347409</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>1275.130855347409</v>
+        <v>1044.751733905552</v>
       </c>
       <c r="W28" t="n">
-        <v>985.713685310448</v>
+        <v>755.3345638685918</v>
       </c>
       <c r="X28" t="n">
-        <v>816.5074119443558</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y28" t="n">
-        <v>595.7148328008257</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,49 +6448,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.9892362638</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2786.879505108313</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3033.644633014777</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>3436.041841080102</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>3765.904468744135</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>4045.444533962832</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.74515569858</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3759.690041781069</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="C31" t="n">
-        <v>3759.690041781069</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D31" t="n">
-        <v>3609.573402368733</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E31" t="n">
-        <v>3609.573402368733</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>3609.573402368733</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368733</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4749.779469576119</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4525.994054365625</v>
+        <v>1198.351098593279</v>
       </c>
       <c r="U31" t="n">
-        <v>4525.994054365625</v>
+        <v>909.222459806837</v>
       </c>
       <c r="V31" t="n">
-        <v>4271.309566159738</v>
+        <v>909.222459806837</v>
       </c>
       <c r="W31" t="n">
-        <v>4271.309566159738</v>
+        <v>909.222459806837</v>
       </c>
       <c r="X31" t="n">
-        <v>4043.320015261721</v>
+        <v>909.222459806837</v>
       </c>
       <c r="Y31" t="n">
-        <v>3941.338506611309</v>
+        <v>688.4298806633069</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,67 +6685,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250805</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095318</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>3525.606699852206</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>3959.296496892131</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N33" t="n">
-        <v>4289.159124556164</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.699189774861</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557071</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>379.1484955647072</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C34" t="n">
-        <v>210.2123126368003</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D34" t="n">
-        <v>210.2123126368003</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E34" t="n">
-        <v>210.2123126368003</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>210.2123126368003</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>210.2123126368003</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.996260473455</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V34" t="n">
-        <v>1298.996260473455</v>
+        <v>1094.302010220232</v>
       </c>
       <c r="W34" t="n">
-        <v>1009.579090436494</v>
+        <v>804.8848401832718</v>
       </c>
       <c r="X34" t="n">
-        <v>781.5895395384771</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="Y34" t="n">
-        <v>560.796960394947</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,61 +6928,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.9892362638</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2786.879505108313</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>3177.427413012051</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>3484.747546292013</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N36" t="n">
-        <v>4289.159124556164</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O36" t="n">
-        <v>4568.699189774861</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557071</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4011.580169497612</v>
+        <v>634.6737565393106</v>
       </c>
       <c r="C37" t="n">
-        <v>4011.580169497612</v>
+        <v>465.7375736114037</v>
       </c>
       <c r="D37" t="n">
-        <v>3924.638671546823</v>
+        <v>315.620934199068</v>
       </c>
       <c r="E37" t="n">
-        <v>3924.638671546823</v>
+        <v>315.620934199068</v>
       </c>
       <c r="F37" t="n">
-        <v>3777.748724048913</v>
+        <v>315.620934199068</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368733</v>
+        <v>147.4456125188886</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576119</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4749.779469576119</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>4749.779469576119</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>4749.779469576119</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W37" t="n">
-        <v>4460.362299539159</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X37" t="n">
-        <v>4232.372748641142</v>
+        <v>816.3222213695503</v>
       </c>
       <c r="Y37" t="n">
-        <v>4011.580169497612</v>
+        <v>816.3222213695503</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,10 +7159,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,16 +7171,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7196,7 +7198,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>190.6805289025651</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>339.750213104625</v>
+        <v>367.4730644165944</v>
       </c>
       <c r="L39" t="n">
-        <v>953.6472828615138</v>
+        <v>614.2381923230585</v>
       </c>
       <c r="M39" t="n">
-        <v>1722.015429253975</v>
+        <v>921.55832560302</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>415.8104215925219</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="C40" t="n">
-        <v>415.8104215925219</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="D40" t="n">
-        <v>415.8104215925219</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E40" t="n">
-        <v>415.8104215925219</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1369.550095563627</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1369.550095563627</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1369.550095563627</v>
+        <v>1284.403327242486</v>
       </c>
       <c r="V40" t="n">
-        <v>1114.86560735774</v>
+        <v>1284.403327242486</v>
       </c>
       <c r="W40" t="n">
-        <v>825.448437320779</v>
+        <v>1284.403327242486</v>
       </c>
       <c r="X40" t="n">
-        <v>597.4588864227617</v>
+        <v>1056.413776344468</v>
       </c>
       <c r="Y40" t="n">
-        <v>597.4588864227617</v>
+        <v>835.6211972009382</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,28 +7396,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>303.4575213834695</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341676</v>
+        <v>550.2226492899335</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N42" t="n">
-        <v>1632.773754790662</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>723.5186631855771</v>
+        <v>4187.050763584937</v>
       </c>
       <c r="C43" t="n">
-        <v>675.2581065529675</v>
+        <v>4018.11458065703</v>
       </c>
       <c r="D43" t="n">
-        <v>675.2581065529675</v>
+        <v>3867.997941244694</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705744</v>
+        <v>3867.997941244694</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799295</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471123</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.60808497466</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980057</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.08282758574</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557896</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119721</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119721</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119721</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119721</v>
+        <v>4662.527830934354</v>
       </c>
       <c r="V43" t="n">
-        <v>1133.156678913834</v>
+        <v>4407.843342728467</v>
       </c>
       <c r="W43" t="n">
-        <v>1133.156678913834</v>
+        <v>4407.843342728467</v>
       </c>
       <c r="X43" t="n">
-        <v>905.1671280158168</v>
+        <v>4407.843342728467</v>
       </c>
       <c r="Y43" t="n">
-        <v>905.1671280158168</v>
+        <v>4187.050763584937</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7627,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7661,13 +7663,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>1026.505047571597</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1333.825180851559</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N45" t="n">
-        <v>1663.687808515591</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183167</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>484.0375086983739</v>
+        <v>626.428715221413</v>
       </c>
       <c r="C46" t="n">
-        <v>484.0375086983739</v>
+        <v>626.428715221413</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655742</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286137</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X46" t="n">
-        <v>665.6859735286137</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="Y46" t="n">
-        <v>665.6859735286137</v>
+        <v>626.428715221413</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8772,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8933,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9009,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>165.9802687929767</v>
+        <v>285.1031356539335</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,25 +9242,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P18" t="n">
-        <v>127.6461250100651</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>96.03744927814444</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498452</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9647,7 +9649,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119812</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9720,25 +9722,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165104</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>85.30006332127596</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="M30" t="n">
-        <v>96.03744927814495</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>127.6461250100635</v>
+        <v>73.53204524669997</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>145.2351313103778</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>283.6093329825492</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>52.49733361305211</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.50021372615268</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,28 +11141,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>15.83804904622849</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>213.2603911806621</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>398.9629823660891</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>73.64859338270611</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>106.002494880393</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>106.6692622192412</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>63.62218344295472</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>64.81525368572441</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>116.2794466281827</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>97.63259526335784</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>104.4029030999444</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>60.58268789361496</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>99.16201537327453</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>231.5518244803476</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>110.3999144253974</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>58.19544475660587</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>121.9088507970153</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>117.6229597881867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>147.4678048670588</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>247.7712303919048</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>62.54339004693151</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>99.18759251951943</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25369,16 +25371,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>69.84829673926981</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>271.790348499918</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>119.4688700323444</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>199.8582301432313</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>57.5182706220056</v>
+        <v>48.04274206891525</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>783893.4803848274</v>
+        <v>783893.4803848275</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>783893.4803848275</v>
+        <v>783893.4803848274</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>783893.4803848274</v>
+        <v>783893.4803848272</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>783893.4803848272</v>
+        <v>783893.4803848274</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>783893.4803848274</v>
+        <v>783893.4803848272</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>783893.4803848272</v>
+        <v>783893.4803848274</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>783893.4803848271</v>
+        <v>783893.4803848274</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>783893.4803848274</v>
+        <v>783893.4803848275</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.37164482</v>
+      </c>
+      <c r="C2" t="n">
         <v>636307.3716448199</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448196</v>
-      </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="F2" t="n">
         <v>606095.0425934487</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934482</v>
       </c>
       <c r="H2" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="I2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="J2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="K2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="L2" t="n">
         <v>606095.0425934483</v>
       </c>
-      <c r="J2" t="n">
-        <v>606095.0425934488</v>
-      </c>
-      <c r="K2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>606095.0425934487</v>
       </c>
-      <c r="M2" t="n">
-        <v>606095.0425934488</v>
-      </c>
       <c r="N2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="O2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934483</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925926</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,37 +26429,37 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687062</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687062</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687066</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687061</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26470,43 +26472,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871668</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871668</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-202152.4534196586</v>
+        <v>-202152.4534196584</v>
       </c>
       <c r="C6" t="n">
-        <v>387815.4257948857</v>
+        <v>387815.425794886</v>
       </c>
       <c r="D6" t="n">
-        <v>387815.4257948857</v>
+        <v>387815.4257948859</v>
       </c>
       <c r="E6" t="n">
-        <v>-33226.92741903488</v>
+        <v>-33226.92741903459</v>
       </c>
       <c r="F6" t="n">
         <v>491933.1090578614</v>
       </c>
       <c r="G6" t="n">
-        <v>491933.1090578615</v>
+        <v>491933.1090578609</v>
       </c>
       <c r="H6" t="n">
-        <v>491933.1090578616</v>
+        <v>491933.1090578613</v>
       </c>
       <c r="I6" t="n">
+        <v>491933.1090578613</v>
+      </c>
+      <c r="J6" t="n">
+        <v>315509.8898652684</v>
+      </c>
+      <c r="K6" t="n">
+        <v>491933.1090578611</v>
+      </c>
+      <c r="L6" t="n">
         <v>491933.109057861</v>
       </c>
-      <c r="J6" t="n">
-        <v>315509.8898652688</v>
-      </c>
-      <c r="K6" t="n">
-        <v>491933.1090578613</v>
-      </c>
-      <c r="L6" t="n">
-        <v>491933.1090578614</v>
-      </c>
       <c r="M6" t="n">
-        <v>357132.0938240243</v>
+        <v>357132.0938240242</v>
       </c>
       <c r="N6" t="n">
-        <v>491933.1090578612</v>
+        <v>491933.109057861</v>
       </c>
       <c r="O6" t="n">
-        <v>491933.1090578611</v>
+        <v>491933.109057861</v>
       </c>
       <c r="P6" t="n">
-        <v>491933.1090578613</v>
+        <v>491933.109057861</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26753,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26805,22 +26807,22 @@
         <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27427,7 +27429,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>26.47520855312644</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>12.86378753284998</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>77.33397343844581</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>100.2678763193463</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27631,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>146.5292625586875</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.85181509428656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>99.05148280260391</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>225.4203619167159</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>235.7347733624919</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>257.9462244840369</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>154.4009807702106</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>81.13225624246505</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34793,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,7 +35494,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35504,10 +35506,10 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>492.1965505854582</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35729,7 +35731,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>415.237973749001</v>
+        <v>534.3608406099578</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35741,13 +35743,13 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7395399415897</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490677</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.040675600518</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>429.2320226761576</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411085</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>525.556183571462</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299188</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081092</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490677</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879394</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560246</v>
+        <v>609.7603912467498</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145236</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315249</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507424</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>334.5577682773003</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>639.309310412009</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>429.2814066296115</v>
       </c>
       <c r="M30" t="n">
-        <v>406.4618263286113</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,10 +36928,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>438.0705020605299</v>
+        <v>383.9564222971663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>394.4928362664022</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>490.7027479140739</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.40751256795882</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>231.0756523140919</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>166.4134876341677</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>495.6240934217703</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799215</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>709.3873594165555</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>356.0122956238143</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2798606.171431107</v>
+        <v>2791589.156539395</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34.67837831202861</v>
       </c>
       <c r="S2" t="n">
-        <v>147.9405042558451</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>71.28149957976655</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>234.7283054736621</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>27.886450250284</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>94.87108535349289</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>26.71728140711206</v>
+        <v>235.5000960026868</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>118.948268258191</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>70.08905956414512</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,19 +1189,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>19.85889072024105</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>144.5773991465721</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.295090184551618</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>125.1893113333086</v>
       </c>
     </row>
     <row r="14">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>116.2097967389826</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>128.0770601256793</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.42907708199289</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.04381361151498</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,10 +2535,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>20.58581884348041</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532058</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>141.7377288984306</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>99.63871026137393</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>4.366412931923203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>49.72623584801669</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U40" t="n">
-        <v>14.44700389865935</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>86.3791222553461</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>100.5727309492971</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>235.2707607354173</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1610.120910258947</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C2" t="n">
-        <v>1241.158393318536</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
         <v>882.8926947117852</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2662.120426056577</v>
       </c>
       <c r="S2" t="n">
-        <v>2547.714238234541</v>
+        <v>2485.942938370747</v>
       </c>
       <c r="T2" t="n">
-        <v>2547.714238234541</v>
+        <v>2267.30827134281</v>
       </c>
       <c r="U2" t="n">
-        <v>2293.952452872632</v>
+        <v>2013.546485980902</v>
       </c>
       <c r="V2" t="n">
-        <v>1962.889565529061</v>
+        <v>2013.546485980902</v>
       </c>
       <c r="W2" t="n">
-        <v>1610.120910258947</v>
+        <v>2013.546485980902</v>
       </c>
       <c r="X2" t="n">
-        <v>1610.120910258947</v>
+        <v>2013.546485980902</v>
       </c>
       <c r="Y2" t="n">
-        <v>1610.120910258947</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>318.4909684781774</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>318.4909684781774</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>246.4894537511404</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084171</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1686.741202187451</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.778685247039</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2668.980959452279</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2450.346292424342</v>
+        <v>2546.291022403773</v>
       </c>
       <c r="U5" t="n">
-        <v>2450.346292424342</v>
+        <v>2292.529237041865</v>
       </c>
       <c r="V5" t="n">
-        <v>2450.346292424342</v>
+        <v>2292.529237041865</v>
       </c>
       <c r="W5" t="n">
-        <v>2450.346292424342</v>
+        <v>2292.529237041865</v>
       </c>
       <c r="X5" t="n">
-        <v>2076.880534163262</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="Y5" t="n">
-        <v>1686.741202187451</v>
+        <v>1919.063478780785</v>
       </c>
     </row>
     <row r="6">
@@ -4643,10 +4643,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>671.7249121235795</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W7" t="n">
-        <v>671.7249121235795</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X7" t="n">
-        <v>443.7353612255621</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1483.703156598057</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C8" t="n">
-        <v>1483.703156598057</v>
+        <v>549.649320534154</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>549.649320534154</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>549.649320534154</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>138.6634157445464</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>124.7400116831373</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,13 +4819,13 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834949</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834949</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1873.842488573869</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1483.703156598057</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>418.6523285934727</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>708.0694986304334</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942405</v>
+        <v>708.0694986304334</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942405</v>
+        <v>708.0694986304334</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942405</v>
+        <v>708.0694986304334</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942405</v>
+        <v>708.0694986304334</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942405</v>
+        <v>708.0694986304334</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942405</v>
+        <v>418.6523285934727</v>
       </c>
       <c r="X10" t="n">
-        <v>404.5276295785111</v>
+        <v>418.6523285934727</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>418.6523285934727</v>
       </c>
     </row>
     <row r="11">
@@ -5041,16 +5041,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>841.8631140141288</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N12" t="n">
-        <v>1171.725741678162</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1841.189502980821</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>843.8929204411535</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C13" t="n">
-        <v>674.9567375132466</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D13" t="n">
-        <v>524.8400981009108</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1495.587896634113</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1295.667886549665</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1071.882471339171</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1071.882471339171</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1071.882471339171</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>1071.882471339171</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X13" t="n">
-        <v>843.8929204411535</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y13" t="n">
-        <v>843.8929204411535</v>
+        <v>565.9270610048577</v>
       </c>
     </row>
     <row r="14">
@@ -5278,16 +5278,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>816.7950850315615</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227918</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>874.9271131227918</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>585.5099430858311</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>585.5099430858311</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>364.7173639423009</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>674.6944526764913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>505.7582697485844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1275.130855347408</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>985.7136853104475</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>856.3429175067311</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>856.3429175067311</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5767,7 +5767,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1841.189502980821</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2361.490124716568</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3778.208216256917</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C22" t="n">
-        <v>3609.27203332901</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1452.407367920009</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1452.407367920009</v>
       </c>
       <c r="T22" t="n">
-        <v>4660.934562929845</v>
+        <v>1228.621952709515</v>
       </c>
       <c r="U22" t="n">
-        <v>4371.805924143403</v>
+        <v>939.4933139230729</v>
       </c>
       <c r="V22" t="n">
-        <v>4371.805924143403</v>
+        <v>939.4933139230729</v>
       </c>
       <c r="W22" t="n">
-        <v>4082.388754106442</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="X22" t="n">
-        <v>3854.399203208425</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="Y22" t="n">
-        <v>3854.399203208425</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="23">
@@ -5968,34 +5968,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6004,34 +6004,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>965.2084601534104</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>675.7912901164498</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,46 +6205,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.751733905552</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>755.3345638685918</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028562</v>
@@ -6466,7 +6466,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6548,22 +6548,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1198.351098593279</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>909.222459806837</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>909.222459806837</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>909.222459806837</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>909.222459806837</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>688.4298806633069</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6782,25 +6782,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1094.302010220232</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>804.8848401832718</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>576.8952892852544</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>576.8952892852544</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6925,19 +6925,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -7019,25 +7019,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>634.6737565393106</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>465.7375736114037</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>315.620934199068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>315.620934199068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>315.620934199068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>147.4456125188886</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1044.311772267568</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>1044.311772267568</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>816.3222213695503</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>816.3222213695503</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,10 +7153,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,13 +7168,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7183,40 +7183,40 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>367.4730644165944</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>614.2381923230585</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>921.55832560302</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U40" t="n">
-        <v>1284.403327242486</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>1284.403327242486</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.403327242486</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.413776344468</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.6211972009382</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,22 +7487,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>303.4575213834695</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>550.2226492899335</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>857.5427825698952</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
         <v>2331.418122136705</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4187.050763584937</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>4018.11458065703</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>3867.997941244694</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>3867.997941244694</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4749.779469576118</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>4662.527830934354</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>4407.843342728467</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>4407.843342728467</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>4407.843342728467</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>4187.050763584937</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,28 +7633,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1236.836466556557</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>626.428715221413</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>626.428715221413</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>524.8400981009108</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.21084526296</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V46" t="n">
-        <v>1075.21084526296</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.21084526296</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X46" t="n">
-        <v>847.2212943649431</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y46" t="n">
-        <v>626.428715221413</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783517</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>285.1031356539336</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>285.1031356539335</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q21" t="n">
-        <v>176.7176547498452</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,28 +10430,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>73.53204524669997</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>283.6093329825492</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>80.50021372615268</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11141,19 +11141,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>15.83804904622849</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720739</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>398.9629823660891</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>106.6692622192412</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>93.39534201878615</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63.62218344295472</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>97.63259526335784</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>104.4029030999444</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>63.92053879227779</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>231.5518244803476</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.3938331833852</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>110.3999144253974</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>121.9088507970153</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>247.7712303919048</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>99.18759251951943</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25365,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U40" t="n">
-        <v>271.790348499918</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>199.8582301432313</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,10 +26028,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>48.04274206891525</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>50.96659166316002</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>783893.4803848275</v>
+        <v>783893.4803848274</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>783893.4803848272</v>
+        <v>783893.4803848274</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>783893.4803848272</v>
+        <v>783893.4803848274</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>783893.4803848275</v>
+        <v>783893.4803848274</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.3716448195</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448199</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448197</v>
-      </c>
       <c r="E2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934482</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="H2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="I2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="J2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="K2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="L2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="M2" t="n">
+        <v>606095.0425934489</v>
+      </c>
+      <c r="N2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="I2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="J2" t="n">
-        <v>606095.0425934487</v>
-      </c>
-      <c r="K2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="L2" t="n">
-        <v>606095.0425934483</v>
-      </c>
-      <c r="M2" t="n">
-        <v>606095.0425934487</v>
-      </c>
-      <c r="N2" t="n">
-        <v>606095.0425934483</v>
-      </c>
       <c r="O2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934488</v>
       </c>
       <c r="P2" t="n">
         <v>606095.0425934483</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,7 +26438,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26453,10 +26453,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26493,19 +26493,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-202152.4534196584</v>
+        <v>-202152.4534196587</v>
       </c>
       <c r="C6" t="n">
-        <v>387815.425794886</v>
+        <v>387815.4257948856</v>
       </c>
       <c r="D6" t="n">
-        <v>387815.4257948859</v>
+        <v>387815.4257948861</v>
       </c>
       <c r="E6" t="n">
-        <v>-33226.92741903459</v>
+        <v>-34201.5186787567</v>
       </c>
       <c r="F6" t="n">
-        <v>491933.1090578614</v>
+        <v>490958.5177981395</v>
       </c>
       <c r="G6" t="n">
-        <v>491933.1090578609</v>
+        <v>490958.5177981395</v>
       </c>
       <c r="H6" t="n">
-        <v>491933.1090578613</v>
+        <v>490958.5177981394</v>
       </c>
       <c r="I6" t="n">
-        <v>491933.1090578613</v>
+        <v>490958.5177981395</v>
       </c>
       <c r="J6" t="n">
-        <v>315509.8898652684</v>
+        <v>314535.2986055465</v>
       </c>
       <c r="K6" t="n">
-        <v>491933.1090578611</v>
+        <v>490958.5177981394</v>
       </c>
       <c r="L6" t="n">
-        <v>491933.109057861</v>
+        <v>490958.5177981395</v>
       </c>
       <c r="M6" t="n">
-        <v>357132.0938240242</v>
+        <v>356157.5025643027</v>
       </c>
       <c r="N6" t="n">
-        <v>491933.109057861</v>
+        <v>490958.5177981396</v>
       </c>
       <c r="O6" t="n">
-        <v>491933.109057861</v>
+        <v>490958.5177981398</v>
       </c>
       <c r="P6" t="n">
-        <v>491933.109057861</v>
+        <v>490958.5177981394</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>19.8000242627831</v>
       </c>
       <c r="S2" t="n">
-        <v>26.47520855312644</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>77.33397343844581</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,16 +27593,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>51.79469286292888</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.5292625586875</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>121.5772350041649</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27785,10 +27785,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>225.4203619167159</v>
+        <v>16.63754732114123</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>235.7347733624919</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>253.833713200212</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>9.263859234673244</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>81.13225624246505</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>460.8406984080777</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>492.1965505854582</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>534.3608406099578</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35740,16 +35740,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q21" t="n">
-        <v>264.7306875349194</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>609.7603912467498</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>639.309310412009</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>383.9564222971663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>490.7027479140739</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>231.0756523140919</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37633,19 +37633,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>166.4134876341677</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>709.3873594165555</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2791589.156539395</v>
+        <v>2796528.419388427</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>110.1458031968981</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>34.67837831202861</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>234.7283054736621</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>143.6133126584321</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>94.87108535349289</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>32.52882640960917</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>235.5000960026868</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>70.08905956414512</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>30.04225112093079</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>77.72878559814592</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>19.85889072024105</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>83.53884904317059</v>
       </c>
       <c r="Y13" t="n">
-        <v>125.1893113333086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>131.4813549397309</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.04381361151498</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>204.1291651532058</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>121.9584523686033</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>204.1291651532058</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>3.334148296601503</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>58.4016882597743</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>209.762955662315</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>187.8326399421082</v>
       </c>
       <c r="T40" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>235.2707607354173</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1626.94664591678</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>576.1872736775458</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>165.2013688879383</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2662.120426056577</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2485.942938370747</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2267.30827134281</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2013.546485980902</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2013.546485980902</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.546485980902</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>2013.546485980902</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>2013.546485980902</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="3">
@@ -4412,28 +4412,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>201.8560754027576</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X4" t="n">
-        <v>201.8560754027576</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1919.063478780785</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C5" t="n">
-        <v>1550.100961840373</v>
+        <v>995.7810913884507</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>995.7810913884507</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>609.9928387902064</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>199.0069340005988</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2546.291022403773</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U5" t="n">
-        <v>2292.529237041865</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2292.529237041865</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2292.529237041865</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X5" t="n">
-        <v>1919.063478780785</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y5" t="n">
-        <v>1919.063478780785</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V7" t="n">
-        <v>490.2500993552354</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>500.1394333084172</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>279.3468541648871</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>549.649320534154</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>549.649320534154</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>549.649320534154</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>549.649320534154</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>138.6634157445464</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>124.7400116831373</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2666.803382815262</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2666.803382815262</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2666.803382815262</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2666.803382815262</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2335.740495471692</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1982.971840201577</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>1609.506081940498</v>
       </c>
       <c r="Y8" t="n">
-        <v>936.2491605982757</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>418.6523285934727</v>
+        <v>279.3468541648868</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>279.3468541648868</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>279.3468541648868</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>708.0694986304334</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>708.0694986304334</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>708.0694986304334</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>708.0694986304334</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>708.0694986304334</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>708.0694986304334</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>418.6523285934727</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>418.6523285934727</v>
+        <v>500.139433308417</v>
       </c>
       <c r="Y10" t="n">
-        <v>418.6523285934727</v>
+        <v>279.3468541648868</v>
       </c>
     </row>
     <row r="11">
@@ -5041,19 +5041,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5086,7 +5086,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>565.9270610048577</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C13" t="n">
-        <v>565.9270610048577</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344999</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X13" t="n">
-        <v>692.3809108364826</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="Y13" t="n">
-        <v>565.9270610048577</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="14">
@@ -5278,25 +5278,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5366,7 +5366,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>598.2197476704891</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5515,7 +5515,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5612,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5700,19 +5700,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5743,34 +5743,34 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805457</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1452.407367920009</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1452.407367920009</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1228.621952709515</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>939.4933139230729</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>939.4933139230729</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>650.0761438861124</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="X22" t="n">
-        <v>650.0761438861124</v>
+        <v>303.4081673726149</v>
       </c>
       <c r="Y22" t="n">
-        <v>429.2835647425823</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706323</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>388.5827690683474</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>268.760239702689</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>268.760239702689</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>268.760239702689</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="29">
@@ -6442,28 +6442,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6481,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6900,10 +6900,10 @@
         <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822456</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6949,25 +6949,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>1175.95939372345</v>
       </c>
     </row>
     <row r="38">
@@ -7153,16 +7153,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1309.18633122244</v>
       </c>
       <c r="T40" t="n">
-        <v>1379.229518531123</v>
+        <v>1085.400916011945</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7438,7 +7438,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7605,10 +7605,10 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
         <v>97.21709146028587</v>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,34 +7633,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1037.48362228133</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>782.7991340754431</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>493.3819640384826</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142009</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360588</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8774,25 +8774,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>142.1708063458666</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.39534201878615</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>87.10329841236384</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>63.92053879227779</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>14.45548819888901</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>57.87352781333399</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>82.3938331833852</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>142.0868997263297</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>90.21378475843805</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>8.821697689779768</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>10.08817004149503</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>50.96659166316002</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>783893.4803848274</v>
+        <v>783893.4803848272</v>
       </c>
     </row>
     <row r="7">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448197</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.3716448199</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448196</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448195</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.3716448199</v>
-      </c>
       <c r="E2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934488</v>
       </c>
       <c r="G2" t="n">
         <v>606095.0425934484</v>
@@ -26334,28 +26334,28 @@
         <v>606095.0425934484</v>
       </c>
       <c r="I2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="J2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="K2" t="n">
         <v>606095.0425934484</v>
       </c>
-      <c r="J2" t="n">
-        <v>606095.0425934483</v>
-      </c>
-      <c r="K2" t="n">
-        <v>606095.0425934483</v>
-      </c>
       <c r="L2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="M2" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="N2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="O2" t="n">
         <v>606095.0425934488</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934484</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,16 +26438,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
@@ -26472,34 +26472,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-202152.4534196587</v>
+        <v>-202152.4534196585</v>
       </c>
       <c r="C6" t="n">
-        <v>387815.4257948856</v>
+        <v>387815.425794886</v>
       </c>
       <c r="D6" t="n">
-        <v>387815.4257948861</v>
+        <v>387815.4257948857</v>
       </c>
       <c r="E6" t="n">
-        <v>-34201.5186787567</v>
+        <v>-33324.38654500723</v>
       </c>
       <c r="F6" t="n">
-        <v>490958.5177981395</v>
+        <v>491835.6499318893</v>
       </c>
       <c r="G6" t="n">
-        <v>490958.5177981395</v>
+        <v>491835.649931889</v>
       </c>
       <c r="H6" t="n">
-        <v>490958.5177981394</v>
+        <v>491835.649931889</v>
       </c>
       <c r="I6" t="n">
-        <v>490958.5177981395</v>
+        <v>491835.649931889</v>
       </c>
       <c r="J6" t="n">
-        <v>314535.2986055465</v>
+        <v>315412.4307392962</v>
       </c>
       <c r="K6" t="n">
-        <v>490958.5177981394</v>
+        <v>491835.649931889</v>
       </c>
       <c r="L6" t="n">
-        <v>490958.5177981395</v>
+        <v>491835.6499318891</v>
       </c>
       <c r="M6" t="n">
-        <v>356157.5025643027</v>
+        <v>357034.634698052</v>
       </c>
       <c r="N6" t="n">
-        <v>490958.5177981396</v>
+        <v>491835.6499318892</v>
       </c>
       <c r="O6" t="n">
-        <v>490958.5177981398</v>
+        <v>491835.6499318893</v>
       </c>
       <c r="P6" t="n">
-        <v>490958.5177981394</v>
+        <v>491835.649931889</v>
       </c>
     </row>
   </sheetData>
@@ -26740,25 +26740,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170868</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>303.6383668238969</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>19.8000242627831</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>51.79469286292885</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>51.79469286292888</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>270.1708573623629</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>121.5772350041649</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>147.3031537723281</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>16.63754732114123</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,10 +27858,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>253.833713200212</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>24.43615145388092</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>68.70517704842325</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.263859234673244</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31284,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839191</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>460.8406984080777</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
